--- a/Data/Liste indicateurs statistiques/Agate - indicateurs statistiques.xlsx
+++ b/Data/Liste indicateurs statistiques/Agate - indicateurs statistiques.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="domaine" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="categorie" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="indicateur" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="type indicateur" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">categorie!$A$1:$C$27</definedName>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="247">
   <si>
     <t xml:space="preserve">idDomaine</t>
   </si>
@@ -582,6 +583,252 @@
   </si>
   <si>
     <t xml:space="preserve">Absence du tout à l’égout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">typeIndicateur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">labelTypeIndicateur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">freq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Effectifs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">freq_p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Effectifs pondérés</t>
+  </si>
+  <si>
+    <t xml:space="preserve">part_np</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Part non pondérée</t>
+  </si>
+  <si>
+    <t xml:space="preserve">part_p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Part (en%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">freq.ind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Individus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">freq.pauv60.ind.metro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Individus sous le seuil à 60 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">freq.pauv50.ind.metro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Individus sous le seuil à 50 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">freq.pauv40.ind.metro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Individus sous le seuil à 40 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tx_pauv60.ind.metro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taux de pauvreté à 60 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tx_pauv50.ind.metro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taux de pauvreté à 50 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tx_pauv40.ind.metro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taux de pauvreté à 40 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nombre d’individus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">avg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moyenne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q_0.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantile 1 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q_0.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantile 5 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q_0.1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">er</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> décile</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Q_0.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2ème décile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q_0.25</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">er</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> quartile</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Q_0.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Médiane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q_0.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3ème quartile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q_0.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8ème décile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q_0.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9ème décile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q_0.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantile 95 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q_0.99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantile 99 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d9_d1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecart D9/D1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">q4_q1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecart D8/D2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d5_d1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecart D5/D1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d9_d5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecart D9/D5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">superficie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Superficie (en m²)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">densitepop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Densité de population (en hab / km²)</t>
   </si>
 </sst>
 </file>
@@ -591,7 +838,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -613,6 +860,14 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -657,13 +912,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1195,8 +1454,8 @@
   </sheetPr>
   <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P56" activeCellId="0" sqref="P56"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H8" activeCellId="0" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2476,4 +2735,289 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B32"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.45"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Data/Liste indicateurs statistiques/Agate - indicateurs statistiques.xlsx
+++ b/Data/Liste indicateurs statistiques/Agate - indicateurs statistiques.xlsx
@@ -12,11 +12,12 @@
     <sheet name="categorie" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="indicateur" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="type indicateur" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Zone predefinie" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">categorie!$A$1:$C$27</definedName>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">categorie!$A$1:$D$27</definedName>
     <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">indicateur!$A$1:$D$74</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">categorie!$A$1:$D$27</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">categorie!$A$1:$C$27</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="257">
   <si>
     <t xml:space="preserve">idDomaine</t>
   </si>
@@ -822,13 +823,43 @@
     <t xml:space="preserve">superficie</t>
   </si>
   <si>
-    <t xml:space="preserve">Superficie (en m²)</t>
+    <t xml:space="preserve">Superficie (en km²)</t>
   </si>
   <si>
     <t xml:space="preserve">densitepop</t>
   </si>
   <si>
     <t xml:space="preserve">Densité de population (en hab / km²)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">idZonage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifiant de la zone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">idZonage.name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">idPredefine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">labelPredefine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Département</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Commune</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QPV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zonage utilisateur</t>
   </si>
 </sst>
 </file>
@@ -1435,7 +1466,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C27"/>
+  <autoFilter ref="A1:D27"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -2742,10 +2773,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="A33" activeCellId="0" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3002,8 +3033,22 @@
         <v>246</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>250</v>
+      </c>
+    </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -3020,4 +3065,71 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>256</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Data/Liste indicateurs statistiques/Agate - indicateurs statistiques.xlsx
+++ b/Data/Liste indicateurs statistiques/Agate - indicateurs statistiques.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="domaine" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,9 +15,9 @@
     <sheet name="Zone predefinie" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">categorie!$A$1:$D$27</definedName>
-    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">indicateur!$A$1:$D$74</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">categorie!$A$1:$C$27</definedName>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">categorie!$A$1:$C$27</definedName>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">indicateur!$A$1:$D$75</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">categorie!$A$1:$D$27</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="264">
   <si>
     <t xml:space="preserve">idDomaine</t>
   </si>
@@ -241,16 +241,37 @@
     <t xml:space="preserve">[0,20)</t>
   </si>
   <si>
+    <t xml:space="preserve">Personne de moins de 20 ans</t>
+  </si>
+  <si>
     <t xml:space="preserve">[20,65)</t>
   </si>
   <si>
+    <t xml:space="preserve">Personne âgée entre 20 et 64 ans</t>
+  </si>
+  <si>
     <t xml:space="preserve">[20,60)</t>
   </si>
   <si>
-    <t xml:space="preserve">[60,120]</t>
+    <t xml:space="preserve">Personne âgée entre 20 et 59 ans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[60,75)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Personne âgée entre 60 et 74 ans</t>
   </si>
   <si>
     <t xml:space="preserve">[65,120]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Personne âgée de 65 ans et plus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[75,120]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Personne âgée de 75 ans et plus</t>
   </si>
   <si>
     <t xml:space="preserve">femme seule</t>
@@ -1077,7 +1098,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1466,7 +1487,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D27"/>
+  <autoFilter ref="A1:C27"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1483,10 +1504,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E74"/>
+  <dimension ref="A1:E75"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H8" activeCellId="0" sqref="H8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1494,7 +1515,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="27.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1579,7 +1601,7 @@
         <v>69</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1593,10 +1615,10 @@
         <v>2</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1610,10 +1632,10 @@
         <v>3</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1627,10 +1649,10 @@
         <v>4</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1644,10 +1666,10 @@
         <v>5</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1655,16 +1677,16 @@
         <v>1</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1675,13 +1697,13 @@
         <v>4</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1692,13 +1714,13 @@
         <v>4</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1709,13 +1731,13 @@
         <v>4</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1726,13 +1748,13 @@
         <v>4</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1743,30 +1765,30 @@
         <v>4</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1774,16 +1796,16 @@
         <v>2</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1794,13 +1816,13 @@
         <v>2</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1811,13 +1833,13 @@
         <v>2</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1828,13 +1850,13 @@
         <v>2</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1845,13 +1867,13 @@
         <v>2</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1862,13 +1884,13 @@
         <v>2</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1879,13 +1901,13 @@
         <v>2</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1896,13 +1918,13 @@
         <v>2</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1913,13 +1935,13 @@
         <v>2</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1930,13 +1952,13 @@
         <v>2</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1947,13 +1969,13 @@
         <v>2</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1961,16 +1983,16 @@
         <v>2</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>23</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1978,16 +2000,16 @@
         <v>2</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>75</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1998,13 +2020,13 @@
         <v>4</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2015,13 +2037,13 @@
         <v>4</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2032,13 +2054,13 @@
         <v>4</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2049,13 +2071,13 @@
         <v>4</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2066,30 +2088,30 @@
         <v>4</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2100,13 +2122,13 @@
         <v>1</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2117,13 +2139,13 @@
         <v>1</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2134,13 +2156,13 @@
         <v>1</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2148,16 +2170,16 @@
         <v>3</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2168,13 +2190,13 @@
         <v>2</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2185,13 +2207,13 @@
         <v>2</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2202,13 +2224,13 @@
         <v>2</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2216,33 +2238,33 @@
         <v>3</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2253,13 +2275,13 @@
         <v>1</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2270,13 +2292,13 @@
         <v>1</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2287,13 +2309,13 @@
         <v>1</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2301,16 +2323,16 @@
         <v>4</v>
       </c>
       <c r="B48" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2321,13 +2343,13 @@
         <v>2</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2335,16 +2357,16 @@
         <v>4</v>
       </c>
       <c r="B50" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D50" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="E50" s="0" t="s">
         <v>143</v>
-      </c>
-      <c r="E50" s="0" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2355,13 +2377,13 @@
         <v>3</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>136</v>
+        <v>35</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2369,33 +2391,33 @@
         <v>4</v>
       </c>
       <c r="B52" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B53" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C53" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2406,13 +2428,13 @@
         <v>1</v>
       </c>
       <c r="C54" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2420,16 +2442,16 @@
         <v>5</v>
       </c>
       <c r="B55" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C55" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2440,30 +2462,30 @@
         <v>2</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>41</v>
+        <v>158</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B57" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C57" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>154</v>
+        <v>41</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2477,10 +2499,10 @@
         <v>1</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2494,10 +2516,10 @@
         <v>1</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2511,10 +2533,10 @@
         <v>1</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2522,16 +2544,16 @@
         <v>6</v>
       </c>
       <c r="B61" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C61" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>45</v>
+        <v>167</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2539,16 +2561,16 @@
         <v>6</v>
       </c>
       <c r="B62" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C62" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>163</v>
+        <v>45</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2559,13 +2581,13 @@
         <v>3</v>
       </c>
       <c r="C63" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>136</v>
+        <v>170</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2573,33 +2595,33 @@
         <v>6</v>
       </c>
       <c r="B64" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C64" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>49</v>
+        <v>143</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B65" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C65" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>167</v>
+        <v>49</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2610,13 +2632,13 @@
         <v>1</v>
       </c>
       <c r="C66" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>136</v>
+        <v>174</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2624,16 +2646,16 @@
         <v>7</v>
       </c>
       <c r="B67" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C67" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2644,13 +2666,13 @@
         <v>2</v>
       </c>
       <c r="C68" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2658,16 +2680,16 @@
         <v>7</v>
       </c>
       <c r="B69" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C69" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2678,13 +2700,13 @@
         <v>3</v>
       </c>
       <c r="C70" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2692,16 +2714,16 @@
         <v>7</v>
       </c>
       <c r="B71" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C71" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2712,13 +2734,13 @@
         <v>4</v>
       </c>
       <c r="C72" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2726,16 +2748,16 @@
         <v>7</v>
       </c>
       <c r="B73" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C73" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2746,17 +2768,34 @@
         <v>5</v>
       </c>
       <c r="C74" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>184</v>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B75" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C75" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D75" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="E75" s="0" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D74"/>
+  <autoFilter ref="A1:D75"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -2775,8 +2814,8 @@
   </sheetPr>
   <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A33" activeCellId="0" sqref="A33"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B45" activeCellId="0" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2787,266 +2826,266 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -3085,10 +3124,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3096,7 +3135,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3104,7 +3143,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3112,7 +3151,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3120,7 +3159,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Liste indicateurs statistiques/Agate - indicateurs statistiques.xlsx
+++ b/Data/Liste indicateurs statistiques/Agate - indicateurs statistiques.xlsx
@@ -15,9 +15,10 @@
     <sheet name="Zone predefinie" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">categorie!$A$1:$C$27</definedName>
-    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">indicateur!$A$1:$D$75</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">categorie!$A$1:$D$27</definedName>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">categorie!$A$1:$D$27</definedName>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">indicateur!$A$1:$F$75</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">categorie!$A$1:$C$27</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">indicateur!$A$1:$D$75</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="314">
   <si>
     <t xml:space="preserve">idDomaine</t>
   </si>
@@ -223,57 +224,87 @@
     <t xml:space="preserve">labelIndicateur</t>
   </si>
   <si>
+    <t xml:space="preserve">qualiteIndicateur</t>
+  </si>
+  <si>
     <t xml:space="preserve">population</t>
   </si>
   <si>
+    <t xml:space="preserve">INPER</t>
+  </si>
+  <si>
     <t xml:space="preserve">femme</t>
   </si>
   <si>
     <t xml:space="preserve">Femme</t>
   </si>
   <si>
+    <t xml:space="preserve">NbFemme / INPER</t>
+  </si>
+  <si>
     <t xml:space="preserve">homme</t>
   </si>
   <si>
     <t xml:space="preserve">Homme</t>
   </si>
   <si>
+    <t xml:space="preserve">NbHomme / INPER</t>
+  </si>
+  <si>
     <t xml:space="preserve">[0,20)</t>
   </si>
   <si>
     <t xml:space="preserve">Personne de moins de 20 ans</t>
   </si>
   <si>
+    <t xml:space="preserve">NbJeune / INPER</t>
+  </si>
+  <si>
     <t xml:space="preserve">[20,65)</t>
   </si>
   <si>
     <t xml:space="preserve">Personne âgée entre 20 et 64 ans</t>
   </si>
   <si>
+    <t xml:space="preserve">NbMoyen / INPER</t>
+  </si>
+  <si>
     <t xml:space="preserve">[20,60)</t>
   </si>
   <si>
     <t xml:space="preserve">Personne âgée entre 20 et 59 ans</t>
   </si>
   <si>
+    <t xml:space="preserve">NbMoyen2 / INPER</t>
+  </si>
+  <si>
     <t xml:space="preserve">[60,75)</t>
   </si>
   <si>
     <t xml:space="preserve">Personne âgée entre 60 et 74 ans</t>
   </si>
   <si>
+    <t xml:space="preserve">NbVieux3 / INPER</t>
+  </si>
+  <si>
     <t xml:space="preserve">[65,120]</t>
   </si>
   <si>
     <t xml:space="preserve">Personne âgée de 65 ans et plus</t>
   </si>
   <si>
+    <t xml:space="preserve">NbVieux / INPER</t>
+  </si>
+  <si>
     <t xml:space="preserve">[75,120]</t>
   </si>
   <si>
     <t xml:space="preserve">Personne âgée de 75 ans et plus</t>
   </si>
   <si>
+    <t xml:space="preserve">NbVieux2 / INPER</t>
+  </si>
+  <si>
     <t xml:space="preserve">femme seule</t>
   </si>
   <si>
@@ -403,208 +434,328 @@
     <t xml:space="preserve">Actif</t>
   </si>
   <si>
+    <t xml:space="preserve">ACTIF / NbAgeTravaille</t>
+  </si>
+  <si>
     <t xml:space="preserve">inactif</t>
   </si>
   <si>
     <t xml:space="preserve">Inactif</t>
   </si>
   <si>
+    <t xml:space="preserve">- ACTIF / NbAgeTravaille</t>
+  </si>
+  <si>
     <t xml:space="preserve">actifocc</t>
   </si>
   <si>
     <t xml:space="preserve">Actif occupé</t>
   </si>
   <si>
+    <t xml:space="preserve">- INPCM / ACTIF</t>
+  </si>
+  <si>
     <t xml:space="preserve">chomeur</t>
   </si>
   <si>
     <t xml:space="preserve">Chômeur</t>
   </si>
   <si>
+    <t xml:space="preserve">INPCM / ACTIF</t>
+  </si>
+  <si>
     <t xml:space="preserve">actif femme</t>
   </si>
   <si>
     <t xml:space="preserve">Femme active</t>
   </si>
   <si>
+    <t xml:space="preserve">FemmeActif / NbFemme</t>
+  </si>
+  <si>
     <t xml:space="preserve">actif homme</t>
   </si>
   <si>
     <t xml:space="preserve">Homme actif</t>
   </si>
   <si>
+    <t xml:space="preserve">HommeActif / NbHomme</t>
+  </si>
+  <si>
     <t xml:space="preserve">inactif femme</t>
   </si>
   <si>
     <t xml:space="preserve">Femme inactive</t>
   </si>
   <si>
+    <t xml:space="preserve">- FemmeActif / NbFemme</t>
+  </si>
+  <si>
     <t xml:space="preserve">inactif homme</t>
   </si>
   <si>
     <t xml:space="preserve">Homme inactif</t>
   </si>
   <si>
+    <t xml:space="preserve">- HommeActif / NbHomme</t>
+  </si>
+  <si>
     <t xml:space="preserve">cadre_prof_inter</t>
   </si>
   <si>
     <t xml:space="preserve">Cadre et profession intermédiaire</t>
   </si>
   <si>
+    <t xml:space="preserve">NbCadre / NbAgeTravaille</t>
+  </si>
+  <si>
     <t xml:space="preserve">etudi[2,6)</t>
   </si>
   <si>
     <t xml:space="preserve">Étudiant âgé entre 2 et 6 ans</t>
   </si>
   <si>
+    <t xml:space="preserve">NbEtudian0206 / INPER</t>
+  </si>
+  <si>
     <t xml:space="preserve">n_etudi[2,6)</t>
   </si>
   <si>
     <t xml:space="preserve">Autre</t>
   </si>
   <si>
+    <t xml:space="preserve">- NbEtudian0206 / INPER</t>
+  </si>
+  <si>
     <t xml:space="preserve">etudi[18,25)</t>
   </si>
   <si>
     <t xml:space="preserve">Étudiant âgé entre 18 et 25 ans</t>
   </si>
   <si>
+    <t xml:space="preserve">NbEtudian1825 / INPER</t>
+  </si>
+  <si>
     <t xml:space="preserve">n_etudi[18,25)</t>
   </si>
   <si>
+    <t xml:space="preserve">- NbEtudian1825 / INPER</t>
+  </si>
+  <si>
     <t xml:space="preserve">etudi</t>
   </si>
   <si>
     <t xml:space="preserve">Étudiant</t>
   </si>
   <si>
+    <t xml:space="preserve">NbEtudian0614 / Nb0614</t>
+  </si>
+  <si>
     <t xml:space="preserve">n_etudi</t>
   </si>
   <si>
+    <t xml:space="preserve">- NbEtudian0614 / Nb0614</t>
+  </si>
+  <si>
     <t xml:space="preserve">decrocheur</t>
   </si>
   <si>
+    <t xml:space="preserve">NbDecrocheur / Nb1625</t>
+  </si>
+  <si>
     <t xml:space="preserve">n_decrocheur</t>
   </si>
   <si>
+    <t xml:space="preserve">- NbDecrocheur / Nb1625</t>
+  </si>
+  <si>
     <t xml:space="preserve">nScola_15plus</t>
   </si>
   <si>
     <t xml:space="preserve">Non scolarisé de 15 ans et plus</t>
   </si>
   <si>
+    <t xml:space="preserve">NbScole_15plus / NbScole</t>
+  </si>
+  <si>
     <t xml:space="preserve">immigre</t>
   </si>
   <si>
     <t xml:space="preserve">Immigré</t>
   </si>
   <si>
+    <t xml:space="preserve">NbImmigre / INPER</t>
+  </si>
+  <si>
     <t xml:space="preserve">non_immigre</t>
   </si>
   <si>
+    <t xml:space="preserve">- NbImmigre / INPER</t>
+  </si>
+  <si>
     <t xml:space="preserve">francais</t>
   </si>
   <si>
     <t xml:space="preserve">Français</t>
   </si>
   <si>
+    <t xml:space="preserve">- NbEtranger / INPER</t>
+  </si>
+  <si>
     <t xml:space="preserve">etranger</t>
   </si>
   <si>
+    <t xml:space="preserve">NbEtranger / INPER</t>
+  </si>
+  <si>
     <t xml:space="preserve">res_princ</t>
   </si>
   <si>
     <t xml:space="preserve">Résidence principale</t>
   </si>
   <si>
+    <t xml:space="preserve">CATL1 / X</t>
+  </si>
+  <si>
     <t xml:space="preserve">log_occa</t>
   </si>
   <si>
     <t xml:space="preserve">Logements occasionnels</t>
   </si>
   <si>
+    <t xml:space="preserve">CATL2 / X</t>
+  </si>
+  <si>
     <t xml:space="preserve">res_second</t>
   </si>
   <si>
     <t xml:space="preserve">Résidence secondaires</t>
   </si>
   <si>
+    <t xml:space="preserve">CATL3 / X</t>
+  </si>
+  <si>
     <t xml:space="preserve">log_vacants</t>
   </si>
   <si>
     <t xml:space="preserve">Logements vacants</t>
   </si>
   <si>
+    <t xml:space="preserve">CATL4 / X</t>
+  </si>
+  <si>
     <t xml:space="preserve">locataire</t>
   </si>
   <si>
+    <t xml:space="preserve">NbLocataire / X</t>
+  </si>
+  <si>
     <t xml:space="preserve">locataireHlm</t>
   </si>
   <si>
     <t xml:space="preserve">Locataire en HLM</t>
   </si>
   <si>
+    <t xml:space="preserve">NblocHLM / X</t>
+  </si>
+  <si>
     <t xml:space="preserve">autre</t>
   </si>
   <si>
+    <t xml:space="preserve">- NblocHLM / X</t>
+  </si>
+  <si>
     <t xml:space="preserve">appartement</t>
   </si>
   <si>
+    <t xml:space="preserve">NbAppartement / X</t>
+  </si>
+  <si>
     <t xml:space="preserve">hlm</t>
   </si>
   <si>
     <t xml:space="preserve">Logement HLM</t>
   </si>
   <si>
+    <t xml:space="preserve">NbHLM / CATL1</t>
+  </si>
+  <si>
     <t xml:space="preserve">n_hlm</t>
   </si>
   <si>
+    <t xml:space="preserve">- NbHLM / CATL1</t>
+  </si>
+  <si>
     <t xml:space="preserve">surf100moins</t>
   </si>
   <si>
     <t xml:space="preserve">Surface de 100 m² et moins</t>
   </si>
   <si>
+    <t xml:space="preserve">- Surface / CATL1</t>
+  </si>
+  <si>
     <t xml:space="preserve">surf100etplus</t>
   </si>
   <si>
     <t xml:space="preserve">Surface de plus de 100 m²</t>
   </si>
   <si>
+    <t xml:space="preserve">Surface / CATL1</t>
+  </si>
+  <si>
     <t xml:space="preserve">bain_douche</t>
   </si>
   <si>
     <t xml:space="preserve">Présence d’une baignoire ou d’une douche</t>
   </si>
   <si>
+    <t xml:space="preserve">NbBain / CATL1</t>
+  </si>
+  <si>
     <t xml:space="preserve">N_bain_douche</t>
   </si>
   <si>
     <t xml:space="preserve">Absence d’une baignoire et d’une douche</t>
   </si>
   <si>
+    <t xml:space="preserve">- NbBain / CATL1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Eau_chaude</t>
   </si>
   <si>
     <t xml:space="preserve">Présence d’eau chaude</t>
   </si>
   <si>
+    <t xml:space="preserve">NbEAU / CATL1</t>
+  </si>
+  <si>
     <t xml:space="preserve">N_eau_chaude</t>
   </si>
   <si>
     <t xml:space="preserve">Absence d’eau chaude</t>
   </si>
   <si>
+    <t xml:space="preserve">- NbEAU / CATL1</t>
+  </si>
+  <si>
     <t xml:space="preserve">tout_egout</t>
   </si>
   <si>
     <t xml:space="preserve">Présence du tout à l’égout</t>
   </si>
   <si>
+    <t xml:space="preserve">NbEGOUL / CATL1</t>
+  </si>
+  <si>
     <t xml:space="preserve">N_tout_egout</t>
   </si>
   <si>
     <t xml:space="preserve">Absence du tout à l’égout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- NbEGOUL / CATL1</t>
   </si>
   <si>
     <t xml:space="preserve">typeIndicateur</t>
@@ -1487,7 +1638,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C27"/>
+  <autoFilter ref="A1:D27"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1504,10 +1655,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E75"/>
+  <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topLeft" activeCell="J25" activeCellId="0" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1516,7 +1667,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="27.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="24.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1532,8 +1684,11 @@
       <c r="D1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>63</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1547,11 +1702,14 @@
         <v>1</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="F2" s="0" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
@@ -1564,10 +1722,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1581,10 +1742,13 @@
         <v>2</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>68</v>
+        <v>71</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1598,10 +1762,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>70</v>
+        <v>74</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1615,10 +1782,13 @@
         <v>2</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>72</v>
+        <v>77</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1632,10 +1802,13 @@
         <v>3</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>74</v>
+        <v>80</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1649,10 +1822,13 @@
         <v>4</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>76</v>
+        <v>83</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1666,10 +1842,13 @@
         <v>5</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>78</v>
+        <v>86</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1683,10 +1862,13 @@
         <v>6</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>80</v>
+        <v>89</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1700,10 +1882,10 @@
         <v>1</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1717,10 +1899,10 @@
         <v>2</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1734,10 +1916,10 @@
         <v>3</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1751,10 +1933,10 @@
         <v>4</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1768,10 +1950,10 @@
         <v>5</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1785,10 +1967,10 @@
         <v>6</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1802,7 +1984,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E17" s="0" t="s">
         <v>3</v>
@@ -1819,10 +2001,10 @@
         <v>1</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1836,10 +2018,10 @@
         <v>2</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1853,10 +2035,10 @@
         <v>3</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1870,10 +2052,10 @@
         <v>4</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1887,10 +2069,10 @@
         <v>5</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1904,10 +2086,10 @@
         <v>6</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1921,10 +2103,10 @@
         <v>7</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1938,10 +2120,10 @@
         <v>8</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1955,10 +2137,10 @@
         <v>9</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1972,10 +2154,10 @@
         <v>10</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1989,10 +2171,10 @@
         <v>11</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2006,7 +2188,7 @@
         <v>1</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="E29" s="0" t="s">
         <v>23</v>
@@ -2023,10 +2205,10 @@
         <v>1</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2040,10 +2222,10 @@
         <v>2</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2057,10 +2239,10 @@
         <v>3</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2074,10 +2256,10 @@
         <v>4</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2091,10 +2273,10 @@
         <v>5</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2108,10 +2290,10 @@
         <v>6</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2125,10 +2307,13 @@
         <v>1</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>123</v>
+        <v>133</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2142,10 +2327,13 @@
         <v>2</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2159,10 +2347,13 @@
         <v>3</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>127</v>
+        <v>139</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2176,10 +2367,13 @@
         <v>4</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>129</v>
+        <v>142</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2193,10 +2387,13 @@
         <v>1</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>131</v>
+        <v>145</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2210,10 +2407,13 @@
         <v>2</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>133</v>
+        <v>148</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2227,10 +2427,13 @@
         <v>3</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>135</v>
+        <v>151</v>
+      </c>
+      <c r="F42" s="0" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2244,10 +2447,13 @@
         <v>4</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>137</v>
+        <v>154</v>
+      </c>
+      <c r="F43" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2261,10 +2467,13 @@
         <v>1</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>139</v>
+        <v>157</v>
+      </c>
+      <c r="F44" s="0" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2278,10 +2487,13 @@
         <v>1</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>141</v>
+        <v>160</v>
+      </c>
+      <c r="F45" s="0" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2295,10 +2507,13 @@
         <v>2</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>143</v>
+        <v>163</v>
+      </c>
+      <c r="F46" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2312,10 +2527,13 @@
         <v>3</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>145</v>
+        <v>166</v>
+      </c>
+      <c r="F47" s="0" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2329,10 +2547,13 @@
         <v>4</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>146</v>
+        <v>168</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>143</v>
+        <v>163</v>
+      </c>
+      <c r="F48" s="0" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2346,10 +2567,13 @@
         <v>1</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>148</v>
+        <v>171</v>
+      </c>
+      <c r="F49" s="0" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2363,10 +2587,13 @@
         <v>2</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>143</v>
+        <v>163</v>
+      </c>
+      <c r="F50" s="0" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2380,11 +2607,14 @@
         <v>1</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="E51" s="0" t="s">
         <v>35</v>
       </c>
+      <c r="F51" s="0" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="n">
@@ -2397,10 +2627,13 @@
         <v>2</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>151</v>
+        <v>177</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>143</v>
+        <v>163</v>
+      </c>
+      <c r="F52" s="0" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2414,10 +2647,13 @@
         <v>1</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>153</v>
+        <v>180</v>
+      </c>
+      <c r="F53" s="0" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2431,10 +2667,13 @@
         <v>1</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>154</v>
+        <v>182</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>155</v>
+        <v>183</v>
+      </c>
+      <c r="F54" s="0" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2448,10 +2687,13 @@
         <v>2</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>156</v>
+        <v>185</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>143</v>
+        <v>163</v>
+      </c>
+      <c r="F55" s="0" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2465,10 +2707,13 @@
         <v>1</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>157</v>
+        <v>187</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>158</v>
+        <v>188</v>
+      </c>
+      <c r="F56" s="0" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2482,10 +2727,13 @@
         <v>2</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>159</v>
+        <v>190</v>
       </c>
       <c r="E57" s="0" t="s">
         <v>41</v>
+      </c>
+      <c r="F57" s="0" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2499,10 +2747,13 @@
         <v>1</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>161</v>
+        <v>193</v>
+      </c>
+      <c r="F58" s="0" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2516,10 +2767,13 @@
         <v>1</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>163</v>
+        <v>196</v>
+      </c>
+      <c r="F59" s="0" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2533,10 +2787,13 @@
         <v>1</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>164</v>
+        <v>198</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>165</v>
+        <v>199</v>
+      </c>
+      <c r="F60" s="0" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2550,10 +2807,13 @@
         <v>1</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>166</v>
+        <v>201</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>167</v>
+        <v>202</v>
+      </c>
+      <c r="F61" s="0" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2567,10 +2827,13 @@
         <v>1</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>168</v>
+        <v>204</v>
       </c>
       <c r="E62" s="0" t="s">
         <v>45</v>
+      </c>
+      <c r="F62" s="0" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2584,10 +2847,13 @@
         <v>1</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>169</v>
+        <v>206</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>170</v>
+        <v>207</v>
+      </c>
+      <c r="F63" s="0" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2601,10 +2867,13 @@
         <v>2</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>171</v>
+        <v>209</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>143</v>
+        <v>163</v>
+      </c>
+      <c r="F64" s="0" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2618,10 +2887,13 @@
         <v>1</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>172</v>
+        <v>211</v>
       </c>
       <c r="E65" s="0" t="s">
         <v>49</v>
+      </c>
+      <c r="F65" s="0" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2635,10 +2907,13 @@
         <v>1</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>173</v>
+        <v>213</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>174</v>
+        <v>214</v>
+      </c>
+      <c r="F66" s="0" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2652,10 +2927,13 @@
         <v>2</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>175</v>
+        <v>216</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>143</v>
+        <v>163</v>
+      </c>
+      <c r="F67" s="0" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2669,10 +2947,13 @@
         <v>1</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>177</v>
+        <v>219</v>
+      </c>
+      <c r="F68" s="0" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2686,10 +2967,13 @@
         <v>2</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>178</v>
+        <v>221</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>179</v>
+        <v>222</v>
+      </c>
+      <c r="F69" s="0" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2703,10 +2987,13 @@
         <v>1</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>180</v>
+        <v>224</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>181</v>
+        <v>225</v>
+      </c>
+      <c r="F70" s="0" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2720,10 +3007,13 @@
         <v>2</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>182</v>
+        <v>227</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>183</v>
+        <v>228</v>
+      </c>
+      <c r="F71" s="0" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2737,10 +3027,13 @@
         <v>1</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>184</v>
+        <v>230</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>185</v>
+        <v>231</v>
+      </c>
+      <c r="F72" s="0" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2754,10 +3047,13 @@
         <v>2</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>186</v>
+        <v>233</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>187</v>
+        <v>234</v>
+      </c>
+      <c r="F73" s="0" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2771,10 +3067,13 @@
         <v>1</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>188</v>
+        <v>236</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>189</v>
+        <v>237</v>
+      </c>
+      <c r="F74" s="0" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2788,14 +3087,17 @@
         <v>2</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>190</v>
+        <v>239</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>191</v>
+        <v>240</v>
+      </c>
+      <c r="F75" s="0" t="s">
+        <v>241</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D75"/>
+  <autoFilter ref="A1:F75"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -2826,266 +3128,266 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>192</v>
+        <v>242</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>193</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>194</v>
+        <v>244</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>195</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>196</v>
+        <v>246</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>197</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>198</v>
+        <v>248</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>199</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>201</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>202</v>
+        <v>252</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>203</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>204</v>
+        <v>254</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>205</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>206</v>
+        <v>256</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>207</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>208</v>
+        <v>258</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>209</v>
+        <v>259</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>211</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>212</v>
+        <v>262</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>213</v>
+        <v>263</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>214</v>
+        <v>264</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>215</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>216</v>
+        <v>266</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>217</v>
+        <v>267</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>218</v>
+        <v>268</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>219</v>
+        <v>269</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>220</v>
+        <v>270</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>221</v>
+        <v>271</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>222</v>
+        <v>272</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>223</v>
+        <v>273</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>224</v>
+        <v>274</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>225</v>
+        <v>275</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>226</v>
+        <v>276</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>227</v>
+        <v>277</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>228</v>
+        <v>278</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>229</v>
+        <v>279</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>230</v>
+        <v>280</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>231</v>
+        <v>281</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>232</v>
+        <v>282</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>233</v>
+        <v>283</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>234</v>
+        <v>284</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>235</v>
+        <v>285</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>236</v>
+        <v>286</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>237</v>
+        <v>287</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>238</v>
+        <v>288</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>239</v>
+        <v>289</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>240</v>
+        <v>290</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>241</v>
+        <v>291</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>242</v>
+        <v>292</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>243</v>
+        <v>293</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>244</v>
+        <v>294</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>245</v>
+        <v>295</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>246</v>
+        <v>296</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>247</v>
+        <v>297</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>248</v>
+        <v>298</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>249</v>
+        <v>299</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>251</v>
+        <v>301</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>252</v>
+        <v>302</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>253</v>
+        <v>303</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>254</v>
+        <v>304</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>255</v>
+        <v>305</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>256</v>
+        <v>306</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>257</v>
+        <v>307</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -3124,10 +3426,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>258</v>
+        <v>308</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>259</v>
+        <v>309</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3135,7 +3437,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>260</v>
+        <v>310</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3143,7 +3445,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>261</v>
+        <v>311</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3151,7 +3453,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>262</v>
+        <v>312</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3159,7 +3461,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>263</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Liste indicateurs statistiques/Agate - indicateurs statistiques.xlsx
+++ b/Data/Liste indicateurs statistiques/Agate - indicateurs statistiques.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="domaine" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,10 +15,10 @@
     <sheet name="Zone predefinie" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">categorie!$A$1:$D$27</definedName>
-    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">indicateur!$A$1:$F$75</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">categorie!$A$1:$C$27</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">indicateur!$A$1:$D$75</definedName>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">categorie!$A$1:$C$27</definedName>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">indicateur!$A$1:$D$75</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">categorie!$A$1:$D$27</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">indicateur!$A$1:$F$75</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="324">
   <si>
     <t xml:space="preserve">idDomaine</t>
   </si>
@@ -1014,6 +1014,36 @@
   </si>
   <si>
     <t xml:space="preserve">Zone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">secret_stat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secret statistique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CoefVariation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coefficient de variation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EstVariable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valeur estimée</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IntervalConf.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intervalle de confiance à 95 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">val_diff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valeur diffusée dans le tableau de bord</t>
   </si>
   <si>
     <t xml:space="preserve">idPredefine</t>
@@ -1638,7 +1668,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D27"/>
+  <autoFilter ref="A1:C27"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1657,7 +1687,7 @@
   </sheetPr>
   <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J25" activeCellId="0" sqref="J25"/>
     </sheetView>
   </sheetViews>
@@ -3097,7 +3127,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F75"/>
+  <autoFilter ref="A1:D75"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -3114,10 +3144,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B45" activeCellId="0" sqref="B45"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E40" activeCellId="0" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3390,11 +3420,46 @@
         <v>307</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>317</v>
+      </c>
+    </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -3426,10 +3491,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3437,7 +3502,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3445,7 +3510,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3453,7 +3518,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3461,7 +3526,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>
